--- a/Отчеты о дефектах.xlsx
+++ b/Отчеты о дефектах.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Future Search" sheetId="6" r:id="rId1"/>
-    <sheet name="Гексагон" sheetId="7" r:id="rId2"/>
+    <sheet name="пример 1" sheetId="6" r:id="rId1"/>
+    <sheet name="пример 2" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
